--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi4-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi4-Adam23.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.07956400000000001</v>
+        <v>0.146235</v>
       </c>
       <c r="H2">
-        <v>0.238692</v>
+        <v>0.438705</v>
       </c>
       <c r="I2">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="J2">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="N2">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="O2">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="P2">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="Q2">
-        <v>0.01152519017733333</v>
+        <v>0.024238012545</v>
       </c>
       <c r="R2">
-        <v>0.103726711596</v>
+        <v>0.218142112905</v>
       </c>
       <c r="S2">
-        <v>0.0001017690263485139</v>
+        <v>0.0001820245316311312</v>
       </c>
       <c r="T2">
-        <v>0.0001017690263485139</v>
+        <v>0.0001820245316311313</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.07956400000000001</v>
+        <v>0.146235</v>
       </c>
       <c r="H3">
-        <v>0.238692</v>
+        <v>0.438705</v>
       </c>
       <c r="I3">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="J3">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>43.483467</v>
       </c>
       <c r="O3">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="P3">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="Q3">
-        <v>1.153239522796</v>
+        <v>2.119601598915</v>
       </c>
       <c r="R3">
-        <v>10.379155705164</v>
+        <v>19.076414390235</v>
       </c>
       <c r="S3">
-        <v>0.01018326479439744</v>
+        <v>0.01591795068060106</v>
       </c>
       <c r="T3">
-        <v>0.01018326479439744</v>
+        <v>0.01591795068060106</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.07956400000000001</v>
+        <v>0.146235</v>
       </c>
       <c r="H4">
-        <v>0.238692</v>
+        <v>0.438705</v>
       </c>
       <c r="I4">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="J4">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="N4">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="O4">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="P4">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="Q4">
-        <v>0.3616965383693334</v>
+        <v>0.82518645931</v>
       </c>
       <c r="R4">
-        <v>3.255268845324</v>
+        <v>7.42667813379</v>
       </c>
       <c r="S4">
-        <v>0.003193830555253523</v>
+        <v>0.00619705012881675</v>
       </c>
       <c r="T4">
-        <v>0.003193830555253523</v>
+        <v>0.006197050128816751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.07956400000000001</v>
+        <v>0.146235</v>
       </c>
       <c r="H5">
-        <v>0.238692</v>
+        <v>0.438705</v>
       </c>
       <c r="I5">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="J5">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="N5">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="O5">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="P5">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="Q5">
-        <v>0.007254804648</v>
+        <v>0.02487876557</v>
       </c>
       <c r="R5">
-        <v>0.065293241832</v>
+        <v>0.22390889013</v>
       </c>
       <c r="S5">
-        <v>6.406093036344692E-05</v>
+        <v>0.0001868365090591615</v>
       </c>
       <c r="T5">
-        <v>6.406093036344692E-05</v>
+        <v>0.0001868365090591615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.793107666666667</v>
+        <v>3.793107666666666</v>
       </c>
       <c r="H6">
         <v>11.379323</v>
       </c>
       <c r="I6">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568996</v>
       </c>
       <c r="J6">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568997</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="N6">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="O6">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="P6">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="Q6">
-        <v>0.5494480823165556</v>
+        <v>0.6286962164269999</v>
       </c>
       <c r="R6">
-        <v>4.945032740849001</v>
+        <v>5.658265947843001</v>
       </c>
       <c r="S6">
-        <v>0.00485170270564263</v>
+        <v>0.004721432259386965</v>
       </c>
       <c r="T6">
-        <v>0.00485170270564263</v>
+        <v>0.004721432259386967</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.793107666666667</v>
+        <v>3.793107666666666</v>
       </c>
       <c r="H7">
         <v>11.379323</v>
       </c>
       <c r="I7">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568996</v>
       </c>
       <c r="J7">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568997</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>43.483467</v>
       </c>
       <c r="O7">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="P7">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="Q7">
-        <v>54.97915735031568</v>
+        <v>54.97915735031567</v>
       </c>
       <c r="R7">
-        <v>494.8124161528411</v>
+        <v>494.812416152841</v>
       </c>
       <c r="S7">
-        <v>0.4854735780418996</v>
+        <v>0.4128867970336086</v>
       </c>
       <c r="T7">
-        <v>0.4854735780418996</v>
+        <v>0.4128867970336086</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.793107666666667</v>
+        <v>3.793107666666666</v>
       </c>
       <c r="H8">
         <v>11.379323</v>
       </c>
       <c r="I8">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568996</v>
       </c>
       <c r="J8">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568997</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="N8">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="O8">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="P8">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="Q8">
-        <v>17.24340044109789</v>
+        <v>21.40404886134155</v>
       </c>
       <c r="R8">
-        <v>155.190603969881</v>
+        <v>192.636439752074</v>
       </c>
       <c r="S8">
-        <v>0.1522616153683374</v>
+        <v>0.1607418084202309</v>
       </c>
       <c r="T8">
-        <v>0.1522616153683373</v>
+        <v>0.1607418084202309</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.793107666666667</v>
+        <v>3.793107666666666</v>
       </c>
       <c r="H9">
         <v>11.379323</v>
       </c>
       <c r="I9">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568996</v>
       </c>
       <c r="J9">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568997</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="N9">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="O9">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="P9">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="Q9">
-        <v>0.345863143262</v>
+        <v>0.6453163498531111</v>
       </c>
       <c r="R9">
-        <v>3.112768289358</v>
+        <v>5.807847148677999</v>
       </c>
       <c r="S9">
-        <v>0.003054019482371299</v>
+        <v>0.00484624744367314</v>
       </c>
       <c r="T9">
-        <v>0.003054019482371299</v>
+        <v>0.00484624744367314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.962715</v>
+        <v>2.288493</v>
       </c>
       <c r="H10">
-        <v>5.888145000000001</v>
+        <v>6.865479000000001</v>
       </c>
       <c r="I10">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="J10">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="N10">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="O10">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="P10">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="Q10">
-        <v>0.2843077728483334</v>
+        <v>0.3793108492710001</v>
       </c>
       <c r="R10">
-        <v>2.558769955635</v>
+        <v>3.413797643439</v>
       </c>
       <c r="S10">
-        <v>0.002510477031693021</v>
+        <v>0.002848578428325109</v>
       </c>
       <c r="T10">
-        <v>0.002510477031693021</v>
+        <v>0.00284857842832511</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.962715</v>
+        <v>2.288493</v>
       </c>
       <c r="H11">
-        <v>5.888145000000001</v>
+        <v>6.865479000000001</v>
       </c>
       <c r="I11">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="J11">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>43.483467</v>
       </c>
       <c r="O11">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="P11">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="Q11">
-        <v>28.448550977635</v>
+        <v>33.17053661507701</v>
       </c>
       <c r="R11">
-        <v>256.036958798715</v>
+        <v>298.5348295356931</v>
       </c>
       <c r="S11">
-        <v>0.2512046473396986</v>
+        <v>0.2491067029568897</v>
       </c>
       <c r="T11">
-        <v>0.2512046473396986</v>
+        <v>0.2491067029568897</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.962715</v>
+        <v>2.288493</v>
       </c>
       <c r="H12">
-        <v>5.888145000000001</v>
+        <v>6.865479000000001</v>
       </c>
       <c r="I12">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="J12">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="N12">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="O12">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="P12">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="Q12">
-        <v>8.922467715368334</v>
+        <v>12.913689854178</v>
       </c>
       <c r="R12">
-        <v>80.30220943831502</v>
+        <v>116.223208687602</v>
       </c>
       <c r="S12">
-        <v>0.07878662634174272</v>
+        <v>0.096980243036525</v>
       </c>
       <c r="T12">
-        <v>0.07878662634174272</v>
+        <v>0.096980243036525</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.962715</v>
+        <v>2.288493</v>
       </c>
       <c r="H13">
-        <v>5.888145000000001</v>
+        <v>6.865479000000001</v>
       </c>
       <c r="I13">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="J13">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="N13">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="O13">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="P13">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="Q13">
-        <v>0.17896427913</v>
+        <v>0.3893382627660001</v>
       </c>
       <c r="R13">
-        <v>1.61067851217</v>
+        <v>3.504044364894</v>
       </c>
       <c r="S13">
-        <v>0.001580279384373494</v>
+        <v>0.002923883086308529</v>
       </c>
       <c r="T13">
-        <v>0.001580279384373495</v>
+        <v>0.002923883086308529</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.03956266666666667</v>
+        <v>0.2761626666666666</v>
       </c>
       <c r="H14">
-        <v>0.118688</v>
+        <v>0.8284879999999999</v>
       </c>
       <c r="I14">
-        <v>0.006734128997878449</v>
+        <v>0.04246044548494399</v>
       </c>
       <c r="J14">
-        <v>0.006734128997878451</v>
+        <v>0.042460445484944</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="N14">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="O14">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="P14">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="Q14">
-        <v>0.00573082370488889</v>
+        <v>0.04577313351199999</v>
       </c>
       <c r="R14">
-        <v>0.05157741334400001</v>
+        <v>0.411958201608</v>
       </c>
       <c r="S14">
-        <v>5.060396745283637E-05</v>
+        <v>0.0003437506756522323</v>
       </c>
       <c r="T14">
-        <v>5.060396745283639E-05</v>
+        <v>0.0003437506756522324</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.03956266666666667</v>
+        <v>0.2761626666666666</v>
       </c>
       <c r="H15">
-        <v>0.118688</v>
+        <v>0.8284879999999999</v>
       </c>
       <c r="I15">
-        <v>0.006734128997878449</v>
+        <v>0.04246044548494399</v>
       </c>
       <c r="J15">
-        <v>0.006734128997878451</v>
+        <v>0.042460445484944</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>43.483467</v>
       </c>
       <c r="O15">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="P15">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="Q15">
-        <v>0.5734406368106668</v>
+        <v>4.002836734210666</v>
       </c>
       <c r="R15">
-        <v>5.160965731296002</v>
+        <v>36.025530607896</v>
       </c>
       <c r="S15">
-        <v>0.005063560286551051</v>
+        <v>0.03006081791515895</v>
       </c>
       <c r="T15">
-        <v>0.005063560286551053</v>
+        <v>0.03006081791515895</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.03956266666666667</v>
+        <v>0.2761626666666666</v>
       </c>
       <c r="H16">
-        <v>0.118688</v>
+        <v>0.8284879999999999</v>
       </c>
       <c r="I16">
-        <v>0.006734128997878449</v>
+        <v>0.04246044548494399</v>
       </c>
       <c r="J16">
-        <v>0.006734128997878451</v>
+        <v>0.042460445484944</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="N16">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="O16">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="P16">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="Q16">
-        <v>0.1798511837262222</v>
+        <v>1.558352604371555</v>
       </c>
       <c r="R16">
-        <v>1.618660653536</v>
+        <v>14.025173439344</v>
       </c>
       <c r="S16">
-        <v>0.001588110874859359</v>
+        <v>0.01170303886922449</v>
       </c>
       <c r="T16">
-        <v>0.001588110874859359</v>
+        <v>0.01170303886922449</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.03956266666666667</v>
+        <v>0.2761626666666666</v>
       </c>
       <c r="H17">
-        <v>0.118688</v>
+        <v>0.8284879999999999</v>
       </c>
       <c r="I17">
-        <v>0.006734128997878449</v>
+        <v>0.04246044548494399</v>
       </c>
       <c r="J17">
-        <v>0.006734128997878451</v>
+        <v>0.042460445484944</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="N17">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="O17">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="P17">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="Q17">
-        <v>0.003607403072</v>
+        <v>0.04698318626311111</v>
       </c>
       <c r="R17">
-        <v>0.032466627648</v>
+        <v>0.4228486763679999</v>
       </c>
       <c r="S17">
-        <v>3.18538690152028E-05</v>
+        <v>0.0003528380249083247</v>
       </c>
       <c r="T17">
-        <v>3.185386901520281E-05</v>
+        <v>0.0003528380249083247</v>
       </c>
     </row>
   </sheetData>
